--- a/Final_result.xlsx
+++ b/Final_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A73D14-F0A5-854F-85CD-36F28B62E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EBF96B-A146-A34A-AE8B-AAAB9F72570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="5540" windowWidth="27840" windowHeight="16920" xr2:uid="{6590FC4F-A71F-624B-A102-D758FA10E693}"/>
+    <workbookView xWindow="13460" yWindow="4620" windowWidth="27840" windowHeight="16920" xr2:uid="{6590FC4F-A71F-624B-A102-D758FA10E693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>Accuracy(541982)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+lag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+lag1+PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +146,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,8 +327,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -322,52 +376,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B139773-D10A-0A4C-B617-E74B39F35C3A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
@@ -701,224 +719,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>-189.469760166648</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>74.163840790727605</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>-176.20041482439299</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="2">
         <v>-667.43322591444598</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>-1383.22188829421</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>35.208930673407998</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="3">
         <v>95.123913938170503</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>79.4207260187288</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>63.694081359801999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <v>8.4810702840791308</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>82.537466292100504</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>97.690601535993395</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>69.770022320040496</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>77.520144139150702</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="9">
         <v>64.940395326255299</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>81.344944740947696</v>
+      </c>
+      <c r="D6" s="19">
+        <v>97.302968419999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>69.779661556946493</v>
+      </c>
+      <c r="F6" s="3">
+        <v>77.074776640014207</v>
+      </c>
+      <c r="G6" s="19">
+        <v>71.002143129999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>88.856083384300604</v>
+      </c>
+      <c r="D7" s="19">
+        <v>92.061861870000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>73.409172663976904</v>
+      </c>
+      <c r="F7" s="3">
+        <v>85.044508627085506</v>
+      </c>
+      <c r="G7" s="19">
+        <v>81.644887359999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
         <v>-17.154099131688302</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D8" s="3">
         <v>69.733702040089099</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E8" s="9">
         <v>-77.956117475336399</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F8" s="3">
         <v>-273.85325356476699</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G8" s="9">
         <v>-390.31367793150099</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C9" s="8">
         <v>78.267923349153804</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D9" s="3">
         <v>97.690601535993395</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E9" s="9">
         <v>69.770022320040496</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F9" s="3">
         <v>77.520144139150702</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G9" s="9">
         <v>64.940395326255299</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C10" s="8">
         <v>89.285393302661603</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D10" s="3">
         <v>93.442140284043703</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E10" s="9">
         <v>88.022275807725705</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F10" s="3">
         <v>74.736648783412605</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G10" s="9">
         <v>59.5861883653508</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C11" s="8">
         <v>81.402640621602202</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D11" s="3">
         <v>94.815248890503696</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E11" s="9">
         <v>80.565575074929399</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F11" s="3">
         <v>49.7656108508356</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G11" s="9">
         <v>25.156157702698899</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
+    <row r="12" spans="1:7" ht="17" thickBot="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C12" s="10">
         <v>86.457668000876694</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D12" s="13">
         <v>97.26022888</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E12" s="11">
         <v>85.533643393853893</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F12" s="4">
         <v>62.5372804024381</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G12" s="11">
         <v>51.183324516805101</v>
       </c>
     </row>

--- a/Final_result.xlsx
+++ b/Final_result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EBF96B-A146-A34A-AE8B-AAAB9F72570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE02338-2D09-0E4F-9EBB-8621EB72844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="4620" windowWidth="27840" windowHeight="16920" xr2:uid="{6590FC4F-A71F-624B-A102-D758FA10E693}"/>
+    <workbookView xWindow="8840" yWindow="2000" windowWidth="27840" windowHeight="16920" xr2:uid="{6590FC4F-A71F-624B-A102-D758FA10E693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,11 +110,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lasso Regression+normalization+lag1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lasso Regression+normalization+lag1+PCA</t>
+    <t>Linear Regression+PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree Regression+feature selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1 +PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,13 +154,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -252,15 +253,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -269,17 +261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -300,9 +281,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -310,17 +309,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -337,31 +325,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -385,7 +361,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,54 +690,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B139773-D10A-0A4C-B617-E74B39F35C3A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -760,22 +748,22 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>-189.469760166648</v>
+      <c r="C3" s="19">
+        <v>-191.81717677875801</v>
       </c>
       <c r="D3" s="2">
-        <v>74.163840790727605</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-176.20041482439299</v>
+        <v>71.550196435691205</v>
+      </c>
+      <c r="E3" s="19">
+        <v>-172.35457740000001</v>
       </c>
       <c r="F3" s="2">
-        <v>-667.43322591444598</v>
-      </c>
-      <c r="G3" s="7">
+        <v>-670.23383041305397</v>
+      </c>
+      <c r="G3" s="5">
         <v>-1383.22188829421</v>
       </c>
     </row>
@@ -783,207 +771,275 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>35.208930673407998</v>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="18">
+        <v>88.715486069492201</v>
       </c>
       <c r="D4" s="3">
-        <v>95.123913938170503</v>
-      </c>
-      <c r="E4" s="9">
-        <v>79.4207260187288</v>
+        <v>80.115493957702597</v>
+      </c>
+      <c r="E4" s="18">
+        <v>84.424648259999998</v>
       </c>
       <c r="F4" s="3">
-        <v>63.694081359801999</v>
-      </c>
-      <c r="G4" s="9">
-        <v>8.4810702840791308</v>
+        <v>74.006588099760194</v>
+      </c>
+      <c r="G4" s="6">
+        <v>70.178367723452098</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8">
-        <v>82.537466292100504</v>
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <v>79.420726020000004</v>
       </c>
       <c r="D5" s="3">
-        <v>97.690601535993395</v>
-      </c>
-      <c r="E5" s="9">
-        <v>69.770022320040496</v>
+        <v>94.864480171692904</v>
+      </c>
+      <c r="E5" s="18">
+        <v>79.420726020000004</v>
       </c>
       <c r="F5" s="3">
-        <v>77.520144139150702</v>
-      </c>
-      <c r="G5" s="9">
-        <v>64.940395326255299</v>
+        <v>63.765347125414202</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8.4810702840791308</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>81.344944740947696</v>
-      </c>
-      <c r="D6" s="19">
-        <v>97.302968419999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>69.779661556946493</v>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18">
+        <v>69.770022319999995</v>
+      </c>
+      <c r="D6" s="3">
+        <v>96.131891332527104</v>
+      </c>
+      <c r="E6" s="18">
+        <v>69.770022319999995</v>
       </c>
       <c r="F6" s="3">
-        <v>77.074776640014207</v>
-      </c>
-      <c r="G6" s="19">
-        <v>71.002143129999993</v>
+        <v>77.520144139150702</v>
+      </c>
+      <c r="G6" s="6">
+        <v>64.940395326255299</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3">
-        <v>88.856083384300604</v>
-      </c>
-      <c r="D7" s="19">
-        <v>92.061861870000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>73.409172663976904</v>
+      <c r="C7" s="18">
+        <v>69.779661559999994</v>
+      </c>
+      <c r="D7" s="3">
+        <v>96.136086308924206</v>
+      </c>
+      <c r="E7" s="18">
+        <v>69.779661559999994</v>
       </c>
       <c r="F7" s="3">
-        <v>85.044508627085506</v>
-      </c>
-      <c r="G7" s="19">
-        <v>81.644887359999998</v>
+        <v>77.074776640014207</v>
+      </c>
+      <c r="G7" s="6">
+        <v>71.002143130205795</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>-17.154099131688302</v>
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18">
+        <v>75.625968420000007</v>
       </c>
       <c r="D8" s="3">
-        <v>69.733702040089099</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-77.956117475336399</v>
+        <v>90.313239586760503</v>
+      </c>
+      <c r="E8" s="18">
+        <v>75.625968420000007</v>
       </c>
       <c r="F8" s="3">
-        <v>-273.85325356476699</v>
-      </c>
-      <c r="G8" s="9">
-        <v>-390.31367793150099</v>
+        <v>84.203732293872307</v>
+      </c>
+      <c r="G8" s="6">
+        <v>83.519033481304604</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>78.267923349153804</v>
+      <c r="B9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-77.956117480000003</v>
       </c>
       <c r="D9" s="3">
-        <v>97.690601535993395</v>
-      </c>
-      <c r="E9" s="9">
-        <v>69.770022320040496</v>
+        <v>69.781725315391697</v>
+      </c>
+      <c r="E9" s="18">
+        <v>-77.956117480000003</v>
       </c>
       <c r="F9" s="3">
-        <v>77.520144139150702</v>
-      </c>
-      <c r="G9" s="9">
-        <v>64.940395326255299</v>
+        <v>-273.85325356476699</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-390.31367793150099</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>89.285393302661603</v>
+      <c r="B10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <v>66.510769589999995</v>
       </c>
       <c r="D10" s="3">
-        <v>93.442140284043703</v>
-      </c>
-      <c r="E10" s="9">
-        <v>88.022275807725705</v>
+        <v>89.384114536514403</v>
+      </c>
+      <c r="E10" s="18">
+        <v>66.510769589999995</v>
       </c>
       <c r="F10" s="3">
-        <v>74.736648783412605</v>
-      </c>
-      <c r="G10" s="9">
-        <v>59.5861883653508</v>
+        <v>77.520144139150702</v>
+      </c>
+      <c r="G10" s="6">
+        <v>64.940395326255299</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
+        <v>88.329189929999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>95.496711032342702</v>
+      </c>
+      <c r="E11" s="18">
+        <v>88.329189929999998</v>
+      </c>
+      <c r="F11" s="3">
+        <v>74.736648783412605</v>
+      </c>
+      <c r="G11" s="6">
+        <v>59.5861883653508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>81.402640621602202</v>
-      </c>
-      <c r="D11" s="3">
-        <v>94.815248890503696</v>
-      </c>
-      <c r="E11" s="9">
-        <v>80.565575074929399</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C12" s="18">
+        <v>81.049431760000004</v>
+      </c>
+      <c r="D12" s="3">
+        <v>95.4664193060201</v>
+      </c>
+      <c r="E12" s="18">
+        <v>81.049431760000004</v>
+      </c>
+      <c r="F12" s="3">
         <v>49.7656108508356</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="6">
         <v>25.156157702698899</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="18">
+        <v>81.739564189999996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>96.116233891006303</v>
+      </c>
+      <c r="E13" s="18">
+        <v>81.739564189999996</v>
+      </c>
+      <c r="F13" s="3">
+        <v>85.461516214202803</v>
+      </c>
+      <c r="G13" s="6">
+        <v>78.441738356474701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
-        <v>86.457668000876694</v>
-      </c>
-      <c r="D12" s="13">
-        <v>97.26022888</v>
-      </c>
-      <c r="E12" s="11">
-        <v>85.533643393853893</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="C14" s="9">
+        <v>86.770905940000006</v>
+      </c>
+      <c r="D14" s="9">
+        <v>97.665839938404105</v>
+      </c>
+      <c r="E14" s="9">
+        <v>86.770905940000006</v>
+      </c>
+      <c r="F14" s="4">
         <v>62.5372804024381</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="7">
         <v>51.183324516805101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15">
+        <f>AVERAGE(C4:C14)</f>
+        <v>64.523237119953833</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="0">AVERAGE(D3:D14)</f>
+        <v>89.418535984414802</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>44.425849425833327</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-18.124607940797461</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-99.675562667735747</v>
       </c>
     </row>
   </sheetData>

--- a/Final_result.xlsx
+++ b/Final_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE02338-2D09-0E4F-9EBB-8621EB72844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1B825C-91D5-BA4D-A186-CE321945288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="2000" windowWidth="27840" windowHeight="16920" xr2:uid="{6590FC4F-A71F-624B-A102-D758FA10E693}"/>
+    <workbookView xWindow="2400" yWindow="1040" windowWidth="27840" windowHeight="16920" xr2:uid="{6590FC4F-A71F-624B-A102-D758FA10E693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1 +PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Forest+Feature selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +354,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,21 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B139773-D10A-0A4C-B617-E74B39F35C3A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -706,28 +711,31 @@
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
@@ -743,21 +751,22 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="13">
         <v>-191.81717677875801</v>
       </c>
       <c r="D3" s="2">
         <v>71.550196435691205</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="13">
         <v>-172.35457740000001</v>
       </c>
       <c r="F3" s="2">
@@ -766,21 +775,25 @@
       <c r="G3" s="5">
         <v>-1383.22188829421</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="3">
+        <f>AVERAGE(C3:G3)</f>
+        <v>-469.21545529006619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="12">
         <v>88.715486069492201</v>
       </c>
       <c r="D4" s="3">
         <v>80.115493957702597</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="12">
         <v>84.424648259999998</v>
       </c>
       <c r="F4" s="3">
@@ -789,21 +802,25 @@
       <c r="G4" s="6">
         <v>70.178367723452098</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H15" si="0">AVERAGE(C4:G4)</f>
+        <v>79.488116822081423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>79.420726020000004</v>
       </c>
       <c r="D5" s="3">
         <v>94.864480171692904</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>79.420726020000004</v>
       </c>
       <c r="F5" s="3">
@@ -812,21 +829,25 @@
       <c r="G5" s="6">
         <v>8.4810702840791308</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>65.190469924237249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>69.770022319999995</v>
       </c>
       <c r="D6" s="3">
         <v>96.131891332527104</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <v>69.770022319999995</v>
       </c>
       <c r="F6" s="3">
@@ -835,21 +856,25 @@
       <c r="G6" s="6">
         <v>64.940395326255299</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>75.626495087586619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>69.779661559999994</v>
       </c>
       <c r="D7" s="3">
         <v>96.136086308924206</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>69.779661559999994</v>
       </c>
       <c r="F7" s="3">
@@ -858,21 +883,25 @@
       <c r="G7" s="6">
         <v>71.002143130205795</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>76.754465839828839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>75.625968420000007</v>
       </c>
       <c r="D8" s="3">
         <v>90.313239586760503</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="12">
         <v>75.625968420000007</v>
       </c>
       <c r="F8" s="3">
@@ -881,21 +910,25 @@
       <c r="G8" s="6">
         <v>83.519033481304604</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>81.857588440387488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>-77.956117480000003</v>
       </c>
       <c r="D9" s="3">
         <v>69.781725315391697</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>-77.956117480000003</v>
       </c>
       <c r="F9" s="3">
@@ -904,21 +937,25 @@
       <c r="G9" s="6">
         <v>-390.31367793150099</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>-150.05948822817527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>66.510769589999995</v>
       </c>
       <c r="D10" s="3">
         <v>89.384114536514403</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>66.510769589999995</v>
       </c>
       <c r="F10" s="3">
@@ -927,21 +964,25 @@
       <c r="G10" s="6">
         <v>64.940395326255299</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>72.973238636384082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>88.329189929999998</v>
       </c>
       <c r="D11" s="3">
         <v>95.496711032342702</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>88.329189929999998</v>
       </c>
       <c r="F11" s="3">
@@ -950,104 +991,126 @@
       <c r="G11" s="6">
         <v>59.5861883653508</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>81.295585608221216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="18">
-        <v>81.049431760000004</v>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12">
+        <v>88.592427080768005</v>
       </c>
       <c r="D12" s="3">
-        <v>95.4664193060201</v>
-      </c>
-      <c r="E12" s="18">
-        <v>81.049431760000004</v>
+        <v>95.946523491843607</v>
+      </c>
+      <c r="E12" s="12">
+        <v>87.996795329917504</v>
       </c>
       <c r="F12" s="3">
-        <v>49.7656108508356</v>
+        <v>75.946338196178104</v>
       </c>
       <c r="G12" s="6">
-        <v>25.156157702698899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>59.956276790278302</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>81.687672177797111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12">
+        <v>81.049431760000004</v>
+      </c>
+      <c r="D13" s="3">
+        <v>95.4664193060201</v>
+      </c>
+      <c r="E13" s="12">
+        <v>81.049431760000004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>49.7656108508356</v>
+      </c>
+      <c r="G13" s="6">
+        <v>25.156157702698899</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>66.497410275910923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C14" s="12">
         <v>81.739564189999996</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>96.116233891006303</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="12">
         <v>81.739564189999996</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>85.461516214202803</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>78.441738356474701</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>84.699723368336748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="9">
         <v>86.770905940000006</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>97.665839938404105</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>86.770905940000006</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>62.5372804024381</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>51.183324516805101</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15">
-        <f>AVERAGE(C4:C14)</f>
-        <v>64.523237119953833</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:G15" si="0">AVERAGE(D3:D14)</f>
-        <v>89.418535984414802</v>
-      </c>
-      <c r="E15">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>44.425849425833327</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-18.124607940797461</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>-99.675562667735747</v>
+        <v>76.985651347529455</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
